--- a/app/StudentsSocial.xlsx
+++ b/app/StudentsSocial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M707"/>
+  <dimension ref="A1:M710"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37916,6 +37916,159 @@
         <v>8</v>
       </c>
     </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>745910</v>
+      </c>
+      <c r="B708" t="n">
+        <v>22</v>
+      </c>
+      <c r="C708" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>undergraduate</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="F708" t="n">
+        <v>4</v>
+      </c>
+      <c r="G708" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="H708" t="n">
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>9</v>
+      </c>
+      <c r="J708" t="n">
+        <v>8</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>in relationship</t>
+        </is>
+      </c>
+      <c r="L708" t="n">
+        <v>0</v>
+      </c>
+      <c r="M708" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>448594</v>
+      </c>
+      <c r="B709" t="n">
+        <v>42</v>
+      </c>
+      <c r="C709" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>undergraduate</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="F709" t="n">
+        <v>4</v>
+      </c>
+      <c r="G709" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="H709" t="n">
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>9</v>
+      </c>
+      <c r="J709" t="n">
+        <v>8</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>in relationship</t>
+        </is>
+      </c>
+      <c r="L709" t="n">
+        <v>0</v>
+      </c>
+      <c r="M709" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>781903</v>
+      </c>
+      <c r="B710" t="n">
+        <v>20</v>
+      </c>
+      <c r="C710" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>undergraduate</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="F710" t="n">
+        <v>4</v>
+      </c>
+      <c r="G710" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="H710" t="n">
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>9</v>
+      </c>
+      <c r="J710" t="n">
+        <v>8</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>in relationship</t>
+        </is>
+      </c>
+      <c r="L710" t="n">
+        <v>0</v>
+      </c>
+      <c r="M710" t="n">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/app/StudentsSocial.xlsx
+++ b/app/StudentsSocial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M710"/>
+  <dimension ref="A1:M715"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37867,10 +37867,10 @@
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>536849</v>
+        <v>656110</v>
       </c>
       <c r="B707" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C707" t="inlineStr">
         <is>
@@ -37879,27 +37879,27 @@
       </c>
       <c r="D707" t="inlineStr">
         <is>
-          <t>undergraduate</t>
+          <t>high school</t>
         </is>
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="F707" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G707" t="inlineStr">
         <is>
-          <t>whatsapp</t>
+          <t>instagram</t>
         </is>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I707" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J707" t="n">
         <v>8</v>
@@ -37910,18 +37910,18 @@
         </is>
       </c>
       <c r="L707" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M707" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>745910</v>
+        <v>656110</v>
       </c>
       <c r="B708" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C708" t="inlineStr">
         <is>
@@ -37930,27 +37930,27 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>undergraduate</t>
+          <t>high school</t>
         </is>
       </c>
       <c r="E708" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="F708" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>tiktok</t>
+          <t>snapchat</t>
         </is>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I708" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J708" t="n">
         <v>8</v>
@@ -37969,10 +37969,10 @@
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>448594</v>
+        <v>656110</v>
       </c>
       <c r="B709" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C709" t="inlineStr">
         <is>
@@ -37981,27 +37981,27 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>undergraduate</t>
+          <t>high school</t>
         </is>
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="F709" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>tiktok</t>
+          <t>wechat</t>
         </is>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I709" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J709" t="n">
         <v>8</v>
@@ -38020,10 +38020,10 @@
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>781903</v>
+        <v>656110</v>
       </c>
       <c r="B710" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C710" t="inlineStr">
         <is>
@@ -38032,27 +38032,27 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>undergraduate</t>
+          <t>high school</t>
         </is>
       </c>
       <c r="E710" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="F710" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G710" t="inlineStr">
         <is>
-          <t>tiktok</t>
+          <t>wechat</t>
         </is>
       </c>
       <c r="H710" t="n">
         <v>1</v>
       </c>
       <c r="I710" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J710" t="n">
         <v>8</v>
@@ -38063,9 +38063,264 @@
         </is>
       </c>
       <c r="L710" t="n">
+        <v>5</v>
+      </c>
+      <c r="M710" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>656110</v>
+      </c>
+      <c r="B711" t="n">
+        <v>12</v>
+      </c>
+      <c r="C711" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>high school</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="F711" t="n">
+        <v>10</v>
+      </c>
+      <c r="G711" t="inlineStr">
+        <is>
+          <t>wechat</t>
+        </is>
+      </c>
+      <c r="H711" t="n">
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>10</v>
+      </c>
+      <c r="J711" t="n">
+        <v>8</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>in relationship</t>
+        </is>
+      </c>
+      <c r="L711" t="n">
+        <v>5</v>
+      </c>
+      <c r="M711" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>656110</v>
+      </c>
+      <c r="B712" t="n">
+        <v>12</v>
+      </c>
+      <c r="C712" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>high school</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="F712" t="n">
+        <v>10</v>
+      </c>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="H712" t="n">
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>10</v>
+      </c>
+      <c r="J712" t="n">
+        <v>8</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>in relationship</t>
+        </is>
+      </c>
+      <c r="L712" t="n">
+        <v>5</v>
+      </c>
+      <c r="M712" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>656110</v>
+      </c>
+      <c r="B713" t="n">
+        <v>12</v>
+      </c>
+      <c r="C713" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>high school</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="F713" t="n">
+        <v>10</v>
+      </c>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>line</t>
+        </is>
+      </c>
+      <c r="H713" t="n">
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>10</v>
+      </c>
+      <c r="J713" t="n">
+        <v>8</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>in relationship</t>
+        </is>
+      </c>
+      <c r="L713" t="n">
+        <v>5</v>
+      </c>
+      <c r="M713" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>90926</v>
+      </c>
+      <c r="B714" t="n">
+        <v>22</v>
+      </c>
+      <c r="C714" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>undergraduate</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>mexico</t>
+        </is>
+      </c>
+      <c r="F714" t="n">
+        <v>6</v>
+      </c>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="H714" t="n">
         <v>0</v>
       </c>
-      <c r="M710" t="n">
+      <c r="I714" t="n">
+        <v>10</v>
+      </c>
+      <c r="J714" t="n">
+        <v>8</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>in relationship</t>
+        </is>
+      </c>
+      <c r="L714" t="n">
+        <v>0</v>
+      </c>
+      <c r="M714" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>485286</v>
+      </c>
+      <c r="B715" t="n">
+        <v>22</v>
+      </c>
+      <c r="C715" t="inlineStr">
+        <is>
+          <t>male</t>
+        </is>
+      </c>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>undergraduate</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="F715" t="n">
+        <v>5</v>
+      </c>
+      <c r="G715" t="inlineStr">
+        <is>
+          <t>tiktok</t>
+        </is>
+      </c>
+      <c r="H715" t="n">
+        <v>0</v>
+      </c>
+      <c r="I715" t="n">
+        <v>11</v>
+      </c>
+      <c r="J715" t="n">
+        <v>8</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>in relationship</t>
+        </is>
+      </c>
+      <c r="L715" t="n">
+        <v>0</v>
+      </c>
+      <c r="M715" t="n">
         <v>8</v>
       </c>
     </row>

--- a/app/StudentsSocial.xlsx
+++ b/app/StudentsSocial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M715"/>
+  <dimension ref="A1:M711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37867,10 +37867,10 @@
     </row>
     <row r="707">
       <c r="A707" t="n">
-        <v>656110</v>
+        <v>739395</v>
       </c>
       <c r="B707" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C707" t="inlineStr">
         <is>
@@ -37884,11 +37884,11 @@
       </c>
       <c r="E707" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F707" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G707" t="inlineStr">
         <is>
@@ -37899,14 +37899,14 @@
         <v>0</v>
       </c>
       <c r="I707" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J707" t="n">
         <v>8</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>in relationship</t>
+          <t>single</t>
         </is>
       </c>
       <c r="L707" t="n">
@@ -37918,7 +37918,7 @@
     </row>
     <row r="708">
       <c r="A708" t="n">
-        <v>656110</v>
+        <v>341525</v>
       </c>
       <c r="B708" t="n">
         <v>12</v>
@@ -37930,27 +37930,27 @@
       </c>
       <c r="D708" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>undergraduate</t>
         </is>
       </c>
       <c r="E708" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F708" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G708" t="inlineStr">
         <is>
-          <t>snapchat</t>
+          <t>whatsapp</t>
         </is>
       </c>
       <c r="H708" t="n">
         <v>0</v>
       </c>
       <c r="I708" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J708" t="n">
         <v>8</v>
@@ -37969,7 +37969,7 @@
     </row>
     <row r="709">
       <c r="A709" t="n">
-        <v>656110</v>
+        <v>341525</v>
       </c>
       <c r="B709" t="n">
         <v>12</v>
@@ -37981,27 +37981,27 @@
       </c>
       <c r="D709" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>undergraduate</t>
         </is>
       </c>
       <c r="E709" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F709" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G709" t="inlineStr">
         <is>
-          <t>wechat</t>
+          <t>whatsapp</t>
         </is>
       </c>
       <c r="H709" t="n">
         <v>0</v>
       </c>
       <c r="I709" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J709" t="n">
         <v>8</v>
@@ -38020,7 +38020,7 @@
     </row>
     <row r="710">
       <c r="A710" t="n">
-        <v>656110</v>
+        <v>341525</v>
       </c>
       <c r="B710" t="n">
         <v>12</v>
@@ -38032,46 +38032,44 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>undergraduate</t>
         </is>
       </c>
       <c r="E710" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F710" t="n">
-        <v>10</v>
+        <v>3.01</v>
       </c>
       <c r="G710" t="inlineStr">
         <is>
-          <t>wechat</t>
+          <t>whatsapp</t>
         </is>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I710" t="n">
-        <v>10</v>
+        <v>4.76</v>
       </c>
       <c r="J710" t="n">
         <v>8</v>
       </c>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>in relationship</t>
-        </is>
+      <c r="K710" t="n">
+        <v>1.65</v>
       </c>
       <c r="L710" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M710" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" t="n">
-        <v>656110</v>
+        <v>341525</v>
       </c>
       <c r="B711" t="n">
         <v>12</v>
@@ -38083,245 +38081,39 @@
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>undergraduate</t>
         </is>
       </c>
       <c r="E711" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="F711" t="n">
-        <v>10</v>
+        <v>3.01</v>
       </c>
       <c r="G711" t="inlineStr">
         <is>
-          <t>wechat</t>
+          <t>whatsapp</t>
         </is>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I711" t="n">
-        <v>10</v>
+        <v>4.76</v>
       </c>
       <c r="J711" t="n">
-        <v>8</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>in relationship</t>
-        </is>
+        <v>7.8</v>
+      </c>
+      <c r="K711" t="n">
+        <v>1.65</v>
       </c>
       <c r="L711" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M711" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="712">
-      <c r="A712" t="n">
-        <v>656110</v>
-      </c>
-      <c r="B712" t="n">
-        <v>12</v>
-      </c>
-      <c r="C712" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D712" t="inlineStr">
-        <is>
-          <t>high school</t>
-        </is>
-      </c>
-      <c r="E712" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="F712" t="n">
-        <v>10</v>
-      </c>
-      <c r="G712" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="H712" t="n">
-        <v>1</v>
-      </c>
-      <c r="I712" t="n">
-        <v>10</v>
-      </c>
-      <c r="J712" t="n">
-        <v>8</v>
-      </c>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>in relationship</t>
-        </is>
-      </c>
-      <c r="L712" t="n">
-        <v>5</v>
-      </c>
-      <c r="M712" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="713">
-      <c r="A713" t="n">
-        <v>656110</v>
-      </c>
-      <c r="B713" t="n">
-        <v>12</v>
-      </c>
-      <c r="C713" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D713" t="inlineStr">
-        <is>
-          <t>high school</t>
-        </is>
-      </c>
-      <c r="E713" t="inlineStr">
-        <is>
-          <t>Colombia</t>
-        </is>
-      </c>
-      <c r="F713" t="n">
-        <v>10</v>
-      </c>
-      <c r="G713" t="inlineStr">
-        <is>
-          <t>line</t>
-        </is>
-      </c>
-      <c r="H713" t="n">
-        <v>1</v>
-      </c>
-      <c r="I713" t="n">
-        <v>10</v>
-      </c>
-      <c r="J713" t="n">
-        <v>8</v>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>in relationship</t>
-        </is>
-      </c>
-      <c r="L713" t="n">
-        <v>5</v>
-      </c>
-      <c r="M713" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="714">
-      <c r="A714" t="n">
-        <v>90926</v>
-      </c>
-      <c r="B714" t="n">
-        <v>22</v>
-      </c>
-      <c r="C714" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D714" t="inlineStr">
-        <is>
-          <t>undergraduate</t>
-        </is>
-      </c>
-      <c r="E714" t="inlineStr">
-        <is>
-          <t>mexico</t>
-        </is>
-      </c>
-      <c r="F714" t="n">
-        <v>6</v>
-      </c>
-      <c r="G714" t="inlineStr">
-        <is>
-          <t>tiktok</t>
-        </is>
-      </c>
-      <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="n">
-        <v>10</v>
-      </c>
-      <c r="J714" t="n">
-        <v>8</v>
-      </c>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>in relationship</t>
-        </is>
-      </c>
-      <c r="L714" t="n">
-        <v>0</v>
-      </c>
-      <c r="M714" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="715">
-      <c r="A715" t="n">
-        <v>485286</v>
-      </c>
-      <c r="B715" t="n">
-        <v>22</v>
-      </c>
-      <c r="C715" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D715" t="inlineStr">
-        <is>
-          <t>undergraduate</t>
-        </is>
-      </c>
-      <c r="E715" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="F715" t="n">
-        <v>5</v>
-      </c>
-      <c r="G715" t="inlineStr">
-        <is>
-          <t>tiktok</t>
-        </is>
-      </c>
-      <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="n">
-        <v>11</v>
-      </c>
-      <c r="J715" t="n">
-        <v>8</v>
-      </c>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>in relationship</t>
-        </is>
-      </c>
-      <c r="L715" t="n">
-        <v>0</v>
-      </c>
-      <c r="M715" t="n">
-        <v>8</v>
+        <v>7.92</v>
       </c>
     </row>
   </sheetData>

--- a/app/StudentsSocial.xlsx
+++ b/app/StudentsSocial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanhernandez/Documents/Villa/backend-encuestas/app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CD328D-ECE5-1E49-A672-759920994058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035AC965-F05B-BE4A-BD41-0A54375522FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4440" yWindow="760" windowWidth="24960" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -820,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M706"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A669" workbookViewId="0">
-      <selection activeCell="A707" sqref="A707:M713"/>
+    <sheetView tabSelected="1" topLeftCell="A672" workbookViewId="0">
+      <selection activeCell="P700" sqref="P700"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/app/StudentsSocial.xlsx
+++ b/app/StudentsSocial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M1971"/>
+  <dimension ref="A1:M1961"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99814,7 +99814,7 @@
     </row>
     <row r="1942">
       <c r="A1942" t="n">
-        <v>40452</v>
+        <v>120305</v>
       </c>
       <c r="B1942" t="n">
         <v>22</v>
@@ -99835,29 +99835,27 @@
         </is>
       </c>
       <c r="F1942" t="n">
-        <v>5</v>
+        <v>5.17</v>
       </c>
       <c r="G1942" t="inlineStr">
         <is>
-          <t>whatsapp</t>
+          <t>facebook</t>
         </is>
       </c>
       <c r="H1942" t="n">
         <v>3</v>
       </c>
       <c r="I1942" t="n">
-        <v>7</v>
+        <v>6.68</v>
       </c>
       <c r="J1942" t="n">
         <v>5</v>
       </c>
-      <c r="K1942" t="inlineStr">
-        <is>
-          <t>in relationship</t>
-        </is>
+      <c r="K1942" t="n">
+        <v>1.61</v>
       </c>
       <c r="L1942" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M1942" t="n">
         <v>3</v>
@@ -99865,7 +99863,7 @@
     </row>
     <row r="1943">
       <c r="A1943" t="n">
-        <v>40452</v>
+        <v>120305</v>
       </c>
       <c r="B1943" t="n">
         <v>22</v>
@@ -99886,37 +99884,35 @@
         </is>
       </c>
       <c r="F1943" t="n">
-        <v>13</v>
+        <v>5.17</v>
       </c>
       <c r="G1943" t="inlineStr">
         <is>
-          <t>whatsapp</t>
+          <t>facebook</t>
         </is>
       </c>
       <c r="H1943" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I1943" t="n">
-        <v>1</v>
+        <v>6.68</v>
       </c>
       <c r="J1943" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1943" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="L1943" t="n">
+        <v>2</v>
+      </c>
+      <c r="M1943" t="n">
         <v>3</v>
-      </c>
-      <c r="K1943" t="inlineStr">
-        <is>
-          <t>in relationship</t>
-        </is>
-      </c>
-      <c r="L1943" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1943" t="n">
-        <v>6.03</v>
       </c>
     </row>
     <row r="1944">
       <c r="A1944" t="n">
-        <v>212420</v>
+        <v>120305</v>
       </c>
       <c r="B1944" t="n">
         <v>22</v>
@@ -99937,37 +99933,35 @@
         </is>
       </c>
       <c r="F1944" t="n">
-        <v>3</v>
+        <v>5.17</v>
       </c>
       <c r="G1944" t="inlineStr">
         <is>
-          <t>whatsapp</t>
+          <t>facebook</t>
         </is>
       </c>
       <c r="H1944" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I1944" t="n">
-        <v>8</v>
+        <v>6.68</v>
       </c>
       <c r="J1944" t="n">
         <v>8</v>
       </c>
-      <c r="K1944" t="inlineStr">
-        <is>
-          <t>in relationship</t>
-        </is>
+      <c r="K1944" t="n">
+        <v>1.61</v>
       </c>
       <c r="L1944" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M1944" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1945">
       <c r="A1945" t="n">
-        <v>212420</v>
+        <v>120305</v>
       </c>
       <c r="B1945" t="n">
         <v>22</v>
@@ -99988,26 +99982,24 @@
         </is>
       </c>
       <c r="F1945" t="n">
-        <v>3</v>
+        <v>5.17</v>
       </c>
       <c r="G1945" t="inlineStr">
         <is>
-          <t>whatsapp</t>
+          <t>facebook</t>
         </is>
       </c>
       <c r="H1945" t="n">
         <v>3</v>
       </c>
       <c r="I1945" t="n">
-        <v>11</v>
+        <v>6.68</v>
       </c>
       <c r="J1945" t="n">
         <v>8</v>
       </c>
-      <c r="K1945" t="inlineStr">
-        <is>
-          <t>in relationship</t>
-        </is>
+      <c r="K1945" t="n">
+        <v>1.61</v>
       </c>
       <c r="L1945" t="n">
         <v>1</v>
@@ -100018,7 +100010,7 @@
     </row>
     <row r="1946">
       <c r="A1946" t="n">
-        <v>787430</v>
+        <v>883258</v>
       </c>
       <c r="B1946" t="n">
         <v>22</v>
@@ -100030,7 +100022,7 @@
       </c>
       <c r="D1946" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>undergraduate</t>
         </is>
       </c>
       <c r="E1946" t="inlineStr">
@@ -100039,7 +100031,7 @@
         </is>
       </c>
       <c r="F1946" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="G1946" t="inlineStr">
         <is>
@@ -100047,29 +100039,27 @@
         </is>
       </c>
       <c r="H1946" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I1946" t="n">
-        <v>10</v>
+        <v>6.67</v>
       </c>
       <c r="J1946" t="n">
         <v>8</v>
       </c>
-      <c r="K1946" t="inlineStr">
-        <is>
-          <t>in relationship</t>
-        </is>
+      <c r="K1946" t="n">
+        <v>1.79</v>
       </c>
       <c r="L1946" t="n">
         <v>0</v>
       </c>
       <c r="M1946" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1947">
       <c r="A1947" t="n">
-        <v>787430</v>
+        <v>883258</v>
       </c>
       <c r="B1947" t="n">
         <v>22</v>
@@ -100081,7 +100071,7 @@
       </c>
       <c r="D1947" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>undergraduate</t>
         </is>
       </c>
       <c r="E1947" t="inlineStr">
@@ -100090,7 +100080,7 @@
         </is>
       </c>
       <c r="F1947" t="n">
-        <v>2.27</v>
+        <v>5.4</v>
       </c>
       <c r="G1947" t="inlineStr">
         <is>
@@ -100098,27 +100088,27 @@
         </is>
       </c>
       <c r="H1947" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I1947" t="n">
-        <v>6.73</v>
+        <v>6.67</v>
       </c>
       <c r="J1947" t="n">
         <v>8</v>
       </c>
       <c r="K1947" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="L1947" t="n">
         <v>0</v>
       </c>
       <c r="M1947" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1948">
       <c r="A1948" t="n">
-        <v>787430</v>
+        <v>883258</v>
       </c>
       <c r="B1948" t="n">
         <v>22</v>
@@ -100130,7 +100120,7 @@
       </c>
       <c r="D1948" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>undergraduate</t>
         </is>
       </c>
       <c r="E1948" t="inlineStr">
@@ -100139,7 +100129,7 @@
         </is>
       </c>
       <c r="F1948" t="n">
-        <v>5.43</v>
+        <v>5.4</v>
       </c>
       <c r="G1948" t="inlineStr">
         <is>
@@ -100150,13 +100140,13 @@
         <v>3</v>
       </c>
       <c r="I1948" t="n">
-        <v>6.7</v>
+        <v>6.67</v>
       </c>
       <c r="J1948" t="n">
         <v>8</v>
       </c>
       <c r="K1948" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="L1948" t="n">
         <v>0</v>
@@ -100167,7 +100157,7 @@
     </row>
     <row r="1949">
       <c r="A1949" t="n">
-        <v>787430</v>
+        <v>883258</v>
       </c>
       <c r="B1949" t="n">
         <v>22</v>
@@ -100179,7 +100169,7 @@
       </c>
       <c r="D1949" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>undergraduate</t>
         </is>
       </c>
       <c r="E1949" t="inlineStr">
@@ -100188,7 +100178,7 @@
         </is>
       </c>
       <c r="F1949" t="n">
-        <v>5.43</v>
+        <v>5.4</v>
       </c>
       <c r="G1949" t="inlineStr">
         <is>
@@ -100196,27 +100186,27 @@
         </is>
       </c>
       <c r="H1949" t="n">
+        <v>10</v>
+      </c>
+      <c r="I1949" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="J1949" t="n">
         <v>3</v>
       </c>
-      <c r="I1949" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="J1949" t="n">
-        <v>8</v>
-      </c>
       <c r="K1949" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="L1949" t="n">
         <v>0</v>
       </c>
       <c r="M1949" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1950">
       <c r="A1950" t="n">
-        <v>787430</v>
+        <v>883258</v>
       </c>
       <c r="B1950" t="n">
         <v>22</v>
@@ -100228,7 +100218,7 @@
       </c>
       <c r="D1950" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>undergraduate</t>
         </is>
       </c>
       <c r="E1950" t="inlineStr">
@@ -100237,7 +100227,7 @@
         </is>
       </c>
       <c r="F1950" t="n">
-        <v>5.43</v>
+        <v>5.4</v>
       </c>
       <c r="G1950" t="inlineStr">
         <is>
@@ -100248,13 +100238,13 @@
         <v>3</v>
       </c>
       <c r="I1950" t="n">
-        <v>6.7</v>
+        <v>6.67</v>
       </c>
       <c r="J1950" t="n">
         <v>8</v>
       </c>
       <c r="K1950" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="L1950" t="n">
         <v>0</v>
@@ -100265,7 +100255,7 @@
     </row>
     <row r="1951">
       <c r="A1951" t="n">
-        <v>787430</v>
+        <v>883258</v>
       </c>
       <c r="B1951" t="n">
         <v>22</v>
@@ -100277,7 +100267,7 @@
       </c>
       <c r="D1951" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>undergraduate</t>
         </is>
       </c>
       <c r="E1951" t="inlineStr">
@@ -100286,7 +100276,7 @@
         </is>
       </c>
       <c r="F1951" t="n">
-        <v>5.43</v>
+        <v>5.4</v>
       </c>
       <c r="G1951" t="inlineStr">
         <is>
@@ -100297,13 +100287,13 @@
         <v>3</v>
       </c>
       <c r="I1951" t="n">
-        <v>6.7</v>
+        <v>6.67</v>
       </c>
       <c r="J1951" t="n">
         <v>8</v>
       </c>
       <c r="K1951" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="L1951" t="n">
         <v>0</v>
@@ -100314,7 +100304,7 @@
     </row>
     <row r="1952">
       <c r="A1952" t="n">
-        <v>787430</v>
+        <v>883258</v>
       </c>
       <c r="B1952" t="n">
         <v>22</v>
@@ -100326,7 +100316,7 @@
       </c>
       <c r="D1952" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>undergraduate</t>
         </is>
       </c>
       <c r="E1952" t="inlineStr">
@@ -100335,7 +100325,7 @@
         </is>
       </c>
       <c r="F1952" t="n">
-        <v>5.43</v>
+        <v>5.4</v>
       </c>
       <c r="G1952" t="inlineStr">
         <is>
@@ -100343,27 +100333,27 @@
         </is>
       </c>
       <c r="H1952" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I1952" t="n">
-        <v>6.7</v>
+        <v>6.67</v>
       </c>
       <c r="J1952" t="n">
         <v>8</v>
       </c>
       <c r="K1952" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="L1952" t="n">
         <v>0</v>
       </c>
       <c r="M1952" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1953">
       <c r="A1953" t="n">
-        <v>787430</v>
+        <v>883258</v>
       </c>
       <c r="B1953" t="n">
         <v>22</v>
@@ -100375,7 +100365,7 @@
       </c>
       <c r="D1953" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>undergraduate</t>
         </is>
       </c>
       <c r="E1953" t="inlineStr">
@@ -100384,7 +100374,7 @@
         </is>
       </c>
       <c r="F1953" t="n">
-        <v>5.43</v>
+        <v>5.4</v>
       </c>
       <c r="G1953" t="inlineStr">
         <is>
@@ -100392,27 +100382,27 @@
         </is>
       </c>
       <c r="H1953" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I1953" t="n">
-        <v>6.7</v>
+        <v>6.67</v>
       </c>
       <c r="J1953" t="n">
         <v>8</v>
       </c>
       <c r="K1953" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="L1953" t="n">
         <v>0</v>
       </c>
       <c r="M1953" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1954">
       <c r="A1954" t="n">
-        <v>787430</v>
+        <v>860472</v>
       </c>
       <c r="B1954" t="n">
         <v>22</v>
@@ -100424,7 +100414,7 @@
       </c>
       <c r="D1954" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>undergraduate</t>
         </is>
       </c>
       <c r="E1954" t="inlineStr">
@@ -100433,7 +100423,7 @@
         </is>
       </c>
       <c r="F1954" t="n">
-        <v>5.43</v>
+        <v>5.4</v>
       </c>
       <c r="G1954" t="inlineStr">
         <is>
@@ -100444,24 +100434,24 @@
         <v>7</v>
       </c>
       <c r="I1954" t="n">
-        <v>6.7</v>
+        <v>6.67</v>
       </c>
       <c r="J1954" t="n">
         <v>8</v>
       </c>
       <c r="K1954" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="L1954" t="n">
         <v>0</v>
       </c>
       <c r="M1954" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1955">
       <c r="A1955" t="n">
-        <v>787430</v>
+        <v>956985</v>
       </c>
       <c r="B1955" t="n">
         <v>22</v>
@@ -100473,7 +100463,7 @@
       </c>
       <c r="D1955" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>undergraduate</t>
         </is>
       </c>
       <c r="E1955" t="inlineStr">
@@ -100482,7 +100472,7 @@
         </is>
       </c>
       <c r="F1955" t="n">
-        <v>5.43</v>
+        <v>5.4</v>
       </c>
       <c r="G1955" t="inlineStr">
         <is>
@@ -100493,27 +100483,27 @@
         <v>7</v>
       </c>
       <c r="I1955" t="n">
-        <v>6.7</v>
+        <v>6.67</v>
       </c>
       <c r="J1955" t="n">
         <v>8</v>
       </c>
       <c r="K1955" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="L1955" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M1955" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1956">
       <c r="A1956" t="n">
-        <v>787430</v>
+        <v>171537</v>
       </c>
       <c r="B1956" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1956" t="inlineStr">
         <is>
@@ -100522,16 +100512,16 @@
       </c>
       <c r="D1956" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>undergraduate</t>
         </is>
       </c>
       <c r="E1956" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F1956" t="n">
-        <v>5.43</v>
+        <v>4.14</v>
       </c>
       <c r="G1956" t="inlineStr">
         <is>
@@ -100539,30 +100529,30 @@
         </is>
       </c>
       <c r="H1956" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I1956" t="n">
-        <v>6.7</v>
+        <v>6.94</v>
       </c>
       <c r="J1956" t="n">
         <v>8</v>
       </c>
       <c r="K1956" t="n">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="L1956" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1956" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1957">
       <c r="A1957" t="n">
-        <v>787430</v>
+        <v>171537</v>
       </c>
       <c r="B1957" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1957" t="inlineStr">
         <is>
@@ -100571,16 +100561,16 @@
       </c>
       <c r="D1957" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>undergraduate</t>
         </is>
       </c>
       <c r="E1957" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F1957" t="n">
-        <v>5.43</v>
+        <v>4.14</v>
       </c>
       <c r="G1957" t="inlineStr">
         <is>
@@ -100591,16 +100581,16 @@
         <v>7</v>
       </c>
       <c r="I1957" t="n">
-        <v>6.7</v>
+        <v>6.94</v>
       </c>
       <c r="J1957" t="n">
         <v>8</v>
       </c>
       <c r="K1957" t="n">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="L1957" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1957" t="n">
         <v>9</v>
@@ -100608,10 +100598,10 @@
     </row>
     <row r="1958">
       <c r="A1958" t="n">
-        <v>787430</v>
+        <v>171537</v>
       </c>
       <c r="B1958" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1958" t="inlineStr">
         <is>
@@ -100620,16 +100610,16 @@
       </c>
       <c r="D1958" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>undergraduate</t>
         </is>
       </c>
       <c r="E1958" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F1958" t="n">
-        <v>5.43</v>
+        <v>4.14</v>
       </c>
       <c r="G1958" t="inlineStr">
         <is>
@@ -100637,30 +100627,30 @@
         </is>
       </c>
       <c r="H1958" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I1958" t="n">
-        <v>6.7</v>
+        <v>6.94</v>
       </c>
       <c r="J1958" t="n">
         <v>8</v>
       </c>
       <c r="K1958" t="n">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="L1958" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1958" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1959">
       <c r="A1959" t="n">
-        <v>787430</v>
+        <v>171537</v>
       </c>
       <c r="B1959" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1959" t="inlineStr">
         <is>
@@ -100669,16 +100659,16 @@
       </c>
       <c r="D1959" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>undergraduate</t>
         </is>
       </c>
       <c r="E1959" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F1959" t="n">
-        <v>5.43</v>
+        <v>4.14</v>
       </c>
       <c r="G1959" t="inlineStr">
         <is>
@@ -100689,27 +100679,27 @@
         <v>7</v>
       </c>
       <c r="I1959" t="n">
-        <v>6.7</v>
+        <v>6.94</v>
       </c>
       <c r="J1959" t="n">
         <v>8</v>
       </c>
       <c r="K1959" t="n">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="L1959" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1959" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1960">
       <c r="A1960" t="n">
-        <v>787430</v>
+        <v>171537</v>
       </c>
       <c r="B1960" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1960" t="inlineStr">
         <is>
@@ -100718,16 +100708,16 @@
       </c>
       <c r="D1960" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>undergraduate</t>
         </is>
       </c>
       <c r="E1960" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F1960" t="n">
-        <v>5.43</v>
+        <v>4.14</v>
       </c>
       <c r="G1960" t="inlineStr">
         <is>
@@ -100738,27 +100728,27 @@
         <v>7</v>
       </c>
       <c r="I1960" t="n">
-        <v>6.7</v>
+        <v>6.94</v>
       </c>
       <c r="J1960" t="n">
         <v>8</v>
       </c>
       <c r="K1960" t="n">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="L1960" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1960" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1961">
       <c r="A1961" t="n">
-        <v>787430</v>
+        <v>171537</v>
       </c>
       <c r="B1961" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1961" t="inlineStr">
         <is>
@@ -100767,16 +100757,16 @@
       </c>
       <c r="D1961" t="inlineStr">
         <is>
-          <t>high school</t>
+          <t>undergraduate</t>
         </is>
       </c>
       <c r="E1961" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="F1961" t="n">
-        <v>5.43</v>
+        <v>4.14</v>
       </c>
       <c r="G1961" t="inlineStr">
         <is>
@@ -100784,512 +100774,22 @@
         </is>
       </c>
       <c r="H1961" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I1961" t="n">
-        <v>6.7</v>
+        <v>6.94</v>
       </c>
       <c r="J1961" t="n">
         <v>8</v>
       </c>
       <c r="K1961" t="n">
-        <v>1.74</v>
+        <v>1.55</v>
       </c>
       <c r="L1961" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M1961" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="1962">
-      <c r="A1962" t="n">
-        <v>323820</v>
-      </c>
-      <c r="B1962" t="n">
-        <v>22</v>
-      </c>
-      <c r="C1962" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D1962" t="inlineStr">
-        <is>
-          <t>undergraduate</t>
-        </is>
-      </c>
-      <c r="E1962" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="F1962" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="G1962" t="inlineStr">
-        <is>
-          <t>whatsapp</t>
-        </is>
-      </c>
-      <c r="H1962" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1962" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="J1962" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1962" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="L1962" t="n">
-        <v>2</v>
-      </c>
-      <c r="M1962" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1963">
-      <c r="A1963" t="n">
-        <v>655763</v>
-      </c>
-      <c r="B1963" t="n">
-        <v>22</v>
-      </c>
-      <c r="C1963" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D1963" t="inlineStr">
-        <is>
-          <t>undergraduate</t>
-        </is>
-      </c>
-      <c r="E1963" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="F1963" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="G1963" t="inlineStr">
-        <is>
-          <t>whatsapp</t>
-        </is>
-      </c>
-      <c r="H1963" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1963" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="J1963" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1963" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="L1963" t="n">
-        <v>2</v>
-      </c>
-      <c r="M1963" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1964">
-      <c r="A1964" t="n">
-        <v>378724</v>
-      </c>
-      <c r="B1964" t="n">
-        <v>18</v>
-      </c>
-      <c r="C1964" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D1964" t="inlineStr">
-        <is>
-          <t>undergraduate</t>
-        </is>
-      </c>
-      <c r="E1964" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="F1964" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="G1964" t="inlineStr">
-        <is>
-          <t>facebook</t>
-        </is>
-      </c>
-      <c r="H1964" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1964" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="J1964" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1964" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="L1964" t="n">
-        <v>4</v>
-      </c>
-      <c r="M1964" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="1965">
-      <c r="A1965" t="n">
-        <v>547030</v>
-      </c>
-      <c r="B1965" t="n">
-        <v>22</v>
-      </c>
-      <c r="C1965" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D1965" t="inlineStr">
-        <is>
-          <t>undergraduate</t>
-        </is>
-      </c>
-      <c r="E1965" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="F1965" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="G1965" t="inlineStr">
-        <is>
-          <t>whatsapp</t>
-        </is>
-      </c>
-      <c r="H1965" t="n">
         <v>3</v>
-      </c>
-      <c r="I1965" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="J1965" t="n">
-        <v>5</v>
-      </c>
-      <c r="K1965" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="L1965" t="n">
-        <v>4</v>
-      </c>
-      <c r="M1965" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="1966">
-      <c r="A1966" t="n">
-        <v>859262</v>
-      </c>
-      <c r="B1966" t="n">
-        <v>22</v>
-      </c>
-      <c r="C1966" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D1966" t="inlineStr">
-        <is>
-          <t>undergraduate</t>
-        </is>
-      </c>
-      <c r="E1966" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="F1966" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="G1966" t="inlineStr">
-        <is>
-          <t>youtube</t>
-        </is>
-      </c>
-      <c r="H1966" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1966" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="J1966" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1966" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="L1966" t="n">
-        <v>3</v>
-      </c>
-      <c r="M1966" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="1967">
-      <c r="A1967" t="n">
-        <v>859262</v>
-      </c>
-      <c r="B1967" t="n">
-        <v>22</v>
-      </c>
-      <c r="C1967" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D1967" t="inlineStr">
-        <is>
-          <t>undergraduate</t>
-        </is>
-      </c>
-      <c r="E1967" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="F1967" t="n">
-        <v>4.91</v>
-      </c>
-      <c r="G1967" t="inlineStr">
-        <is>
-          <t>youtube</t>
-        </is>
-      </c>
-      <c r="H1967" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1967" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="J1967" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1967" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="L1967" t="n">
-        <v>3</v>
-      </c>
-      <c r="M1967" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="1968">
-      <c r="A1968" t="n">
-        <v>973645</v>
-      </c>
-      <c r="B1968" t="n">
-        <v>22</v>
-      </c>
-      <c r="C1968" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D1968" t="inlineStr">
-        <is>
-          <t>undergraduate</t>
-        </is>
-      </c>
-      <c r="E1968" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="F1968" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="G1968" t="inlineStr">
-        <is>
-          <t>tiktok</t>
-        </is>
-      </c>
-      <c r="H1968" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1968" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="J1968" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1968" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L1968" t="n">
-        <v>3</v>
-      </c>
-      <c r="M1968" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1969">
-      <c r="A1969" t="n">
-        <v>973645</v>
-      </c>
-      <c r="B1969" t="n">
-        <v>22</v>
-      </c>
-      <c r="C1969" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D1969" t="inlineStr">
-        <is>
-          <t>undergraduate</t>
-        </is>
-      </c>
-      <c r="E1969" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="F1969" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="G1969" t="inlineStr">
-        <is>
-          <t>tiktok</t>
-        </is>
-      </c>
-      <c r="H1969" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1969" t="n">
-        <v>6.66</v>
-      </c>
-      <c r="J1969" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1969" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L1969" t="n">
-        <v>3</v>
-      </c>
-      <c r="M1969" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1970">
-      <c r="A1970" t="n">
-        <v>488658</v>
-      </c>
-      <c r="B1970" t="n">
-        <v>22</v>
-      </c>
-      <c r="C1970" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D1970" t="inlineStr">
-        <is>
-          <t>undergraduate</t>
-        </is>
-      </c>
-      <c r="E1970" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="F1970" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="G1970" t="inlineStr">
-        <is>
-          <t>instagram</t>
-        </is>
-      </c>
-      <c r="H1970" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1970" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="J1970" t="n">
-        <v>3</v>
-      </c>
-      <c r="K1970" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="L1970" t="n">
-        <v>4</v>
-      </c>
-      <c r="M1970" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1971">
-      <c r="A1971" t="n">
-        <v>488658</v>
-      </c>
-      <c r="B1971" t="n">
-        <v>22</v>
-      </c>
-      <c r="C1971" t="inlineStr">
-        <is>
-          <t>male</t>
-        </is>
-      </c>
-      <c r="D1971" t="inlineStr">
-        <is>
-          <t>undergraduate</t>
-        </is>
-      </c>
-      <c r="E1971" t="inlineStr">
-        <is>
-          <t>Mexico</t>
-        </is>
-      </c>
-      <c r="F1971" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="G1971" t="inlineStr">
-        <is>
-          <t>instagram</t>
-        </is>
-      </c>
-      <c r="H1971" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1971" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="J1971" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1971" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="L1971" t="n">
-        <v>1</v>
-      </c>
-      <c r="M1971" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
